--- a/supplement/overlapping_genes_24h_rhythmic_ophio_O. camponoti-floridani_kim.xlsx
+++ b/supplement/overlapping_genes_24h_rhythmic_ophio_O. camponoti-floridani_kim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F2838D-374F-7B40-B1AF-8F354FDDDF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759AC80E-0983-8E4E-94F3-E20F392F4A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{C02C7E7D-D3A2-944A-ABCA-915FF63FFDB4}"/>
   </bookViews>
